--- a/Assets/Basic/Data/Example.xlsx
+++ b/Assets/Basic/Data/Example.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\excel-2-unity-example-basic\Assets\Basic\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\excel-2-unity-example\Assets\Basic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478C1706-717E-4E42-8DC0-EB6D87D3F3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0278B8-3FA9-4F37-A95E-AF8B77A676A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleConstants" sheetId="1" r:id="rId1"/>
-    <sheet name="IDs" sheetId="2" r:id="rId2"/>
+    <sheet name="ExampleIDs" sheetId="2" r:id="rId2"/>
     <sheet name="ExampleLocalization" sheetId="3" r:id="rId3"/>
     <sheet name="ExampleDataBasic1" sheetId="6" r:id="rId4"/>
     <sheet name="ExampleDataBasic2" sheetId="7" r:id="rId5"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="321">
   <si>
     <t>Name</t>
   </si>
@@ -905,6 +905,222 @@
   </si>
   <si>
     <t>RACE_NONE</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>korean</t>
+  </si>
+  <si>
+    <t>thai</t>
+  </si>
+  <si>
+    <t>これは英語のメッセージ 1 です</t>
+  </si>
+  <si>
+    <t>これは英語のメッセージ 2 です</t>
+  </si>
+  <si>
+    <t>これは英語のメッセージ 3 です</t>
+  </si>
+  <si>
+    <t>これは英語のメッセージ 4 です</t>
+  </si>
+  <si>
+    <t>これは英語のメッセージ 5 です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル 1 です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル2です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル 3 です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル 4 です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル5です</t>
+  </si>
+  <si>
+    <t>これは英語のタイトル6です</t>
+  </si>
+  <si>
+    <t>これはサンプルメッセージです</t>
+  </si>
+  <si>
+    <t>主人公の名前1</t>
+  </si>
+  <si>
+    <t>主人公の名前2</t>
+  </si>
+  <si>
+    <t>主人公の名前3</t>
+  </si>
+  <si>
+    <t>主人公の名前4</t>
+  </si>
+  <si>
+    <t>主人公の名前5</t>
+  </si>
+  <si>
+    <t>这是英文消息 1</t>
+  </si>
+  <si>
+    <t>这是英文消息2</t>
+  </si>
+  <si>
+    <t>这是英文消息 3</t>
+  </si>
+  <si>
+    <t>这是英文消息 4</t>
+  </si>
+  <si>
+    <t>这是英文消息 5</t>
+  </si>
+  <si>
+    <t>这是英文标题1</t>
+  </si>
+  <si>
+    <t>这是英文标题2</t>
+  </si>
+  <si>
+    <t>这是英文标题3</t>
+  </si>
+  <si>
+    <t>这是英文标题4</t>
+  </si>
+  <si>
+    <t>这是英文标题5</t>
+  </si>
+  <si>
+    <t>这是英文标题6</t>
+  </si>
+  <si>
+    <t>这是一条示例消息</t>
+  </si>
+  <si>
+    <t>英雄名字1</t>
+  </si>
+  <si>
+    <t>英雄名字2</t>
+  </si>
+  <si>
+    <t>英雄名字3</t>
+  </si>
+  <si>
+    <t>英雄名字4</t>
+  </si>
+  <si>
+    <t>英雄名字5</t>
+  </si>
+  <si>
+    <t>이건 영어 메시지야 1</t>
+  </si>
+  <si>
+    <t>이건 영어 메시지야 2</t>
+  </si>
+  <si>
+    <t>이건 영어 메시지야 3</t>
+  </si>
+  <si>
+    <t>이건 영어 메시지야 4</t>
+  </si>
+  <si>
+    <t>이건 영어 메시지야 5</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 1이야</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 2</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 3</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 4</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 5</t>
+  </si>
+  <si>
+    <t>이건 영어 제목 6이에요</t>
+  </si>
+  <si>
+    <t>이것은 샘플 메시지입니다</t>
+  </si>
+  <si>
+    <t>영웅 이름 1</t>
+  </si>
+  <si>
+    <t>영웅 이름 2</t>
+  </si>
+  <si>
+    <t>영웅 이름 3</t>
+  </si>
+  <si>
+    <t>영웅 이름 4</t>
+  </si>
+  <si>
+    <t>영웅 이름 5</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความภาษาอังกฤษ 1</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความภาษาอังกฤษ 2</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความภาษาอังกฤษ 3</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความภาษาอังกฤษ 4</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความภาษาอังกฤษ 5</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 1</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 2</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 3</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 4</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 5</t>
+  </si>
+  <si>
+    <t>นี่คือชื่อภาษาอังกฤษ 6</t>
+  </si>
+  <si>
+    <t>นี่คือข้อความตัวอย่าง</t>
+  </si>
+  <si>
+    <t>ชื่อฮีโร่1</t>
+  </si>
+  <si>
+    <t>ชื่อฮีโร่2</t>
+  </si>
+  <si>
+    <t>ชื่อฮีโร่3</t>
+  </si>
+  <si>
+    <t>ชื่อฮีโร่4</t>
+  </si>
+  <si>
+    <t>ฮีโร่ชื่อ 5</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1052,43 +1268,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1105,7 +1284,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1203,20 +1382,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1224,6 +1394,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1249,13 +1423,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2238376</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -1272,8 +1446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543549" y="942976"/>
-          <a:ext cx="2609851" cy="457199"/>
+          <a:off x="5543550" y="942976"/>
+          <a:ext cx="2009776" cy="457199"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1321,8 +1495,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1339,8 +1513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="3333750"/>
-          <a:ext cx="1971675" cy="628650"/>
+          <a:off x="7829550" y="3333750"/>
+          <a:ext cx="1790700" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1394,16 +1568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1219199</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1418,13 +1592,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705349" y="4943476"/>
-          <a:ext cx="1895475" cy="1085849"/>
+          <a:off x="1714499" y="4591051"/>
+          <a:ext cx="1676401" cy="1085849"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -256372"/>
-            <a:gd name="adj2" fmla="val -95391"/>
+            <a:gd name="adj1" fmla="val -120576"/>
+            <a:gd name="adj2" fmla="val -67321"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1491,13 +1665,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>247651</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1514,8 +1688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5562600" y="1704975"/>
-          <a:ext cx="2609851" cy="771525"/>
+          <a:off x="5562601" y="1704975"/>
+          <a:ext cx="2019300" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2110,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,9 +2797,13 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
@@ -2638,8 +2816,20 @@
       <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>159</v>
       </c>
@@ -2650,8 +2840,20 @@
       <c r="D2" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>160</v>
       </c>
@@ -2662,8 +2864,20 @@
       <c r="D3" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>161</v>
       </c>
@@ -2674,8 +2888,20 @@
       <c r="D4" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>162</v>
       </c>
@@ -2686,8 +2912,20 @@
       <c r="D5" s="26" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>163</v>
       </c>
@@ -2698,8 +2936,20 @@
       <c r="D6" s="26" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>195</v>
       </c>
@@ -2712,8 +2962,20 @@
       <c r="D7" s="33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>195</v>
       </c>
@@ -2726,8 +2988,20 @@
       <c r="D8" s="33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>195</v>
       </c>
@@ -2740,8 +3014,20 @@
       <c r="D9" s="33" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>195</v>
       </c>
@@ -2754,8 +3040,20 @@
       <c r="D10" s="33" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>195</v>
       </c>
@@ -2768,8 +3066,20 @@
       <c r="D11" s="33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>164</v>
       </c>
@@ -2780,8 +3090,20 @@
       <c r="D12" s="26" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>165</v>
       </c>
@@ -2792,8 +3114,20 @@
       <c r="D13" s="26" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>166</v>
       </c>
@@ -2804,8 +3138,20 @@
       <c r="D14" s="26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>167</v>
       </c>
@@ -2816,8 +3162,20 @@
       <c r="D15" s="26" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>168</v>
       </c>
@@ -2828,8 +3186,20 @@
       <c r="D16" s="26" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>169</v>
       </c>
@@ -2840,8 +3210,20 @@
       <c r="D17" s="26" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>176</v>
       </c>
@@ -2852,8 +3234,20 @@
       <c r="D18" s="33" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2862,8 +3256,8 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>170</v>
       </c>
       <c r="B20" s="22" t="s">
@@ -2875,9 +3269,21 @@
       <c r="D20" s="26" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="E20" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
       <c r="B21" s="22" t="s">
         <v>132</v>
       </c>
@@ -2887,9 +3293,21 @@
       <c r="D21" s="26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="E21" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
       <c r="B22" s="22" t="s">
         <v>135</v>
       </c>
@@ -2899,9 +3317,21 @@
       <c r="D22" s="26" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="E22" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
       <c r="B23" s="22" t="s">
         <v>138</v>
       </c>
@@ -2911,8 +3341,20 @@
       <c r="D23" s="26" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="22" t="s">
         <v>141</v>
@@ -2923,17 +3365,29 @@
       <c r="D24" s="26" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -3066,7 +3520,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="39">
         <v>14</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3083,7 +3537,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="8" t="s">
         <v>151</v>
       </c>
@@ -3762,10 +4216,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="A2" s="40">
         <v>100</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="40">
         <v>200</v>
       </c>
       <c r="C2" s="9">
@@ -3802,8 +4256,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="9">
         <v>4</v>
       </c>
@@ -3813,7 +4267,7 @@
       <c r="E3" s="9">
         <v>6</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="40" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="9">
@@ -3838,11 +4292,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="40">
         <v>500</v>
       </c>
       <c r="D4" s="9">
@@ -3851,7 +4305,7 @@
       <c r="E4" s="9">
         <v>7</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="9">
         <v>3</v>
       </c>
@@ -3873,18 +4327,18 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="9">
         <v>7</v>
       </c>
       <c r="E5" s="9">
         <v>8</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="9"/>
       <c r="H5" s="17" t="s">
         <v>112</v>
@@ -3904,7 +4358,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="9">
         <v>6</v>
       </c>
@@ -3917,7 +4371,7 @@
       <c r="E6" s="9">
         <v>9</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="9"/>
       <c r="H6" s="17" t="s">
         <v>118</v>

--- a/Assets/Basic/Data/Example.xlsx
+++ b/Assets/Basic/Data/Example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\excel-2-unity-example\Assets\Basic\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F594A0-20A9-4F39-BD1F-4DDFAF05CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleConstants" sheetId="1" r:id="rId1"/>
@@ -16,17 +22,17 @@
     <sheet name="ExampleDataAdvanced" sheetId="8" r:id="rId7"/>
     <sheet name="ExampleMergeTable" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,12 +61,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>PC</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,12 +95,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ba Hung Nguyen</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="509">
   <si>
     <t>Name</t>
   </si>
@@ -822,102 +828,9 @@
     <t>ฮีโร่ชื่อ 5</t>
   </si>
   <si>
-    <t>UI_DAY_1</t>
-  </si>
-  <si>
-    <t>Day 1</t>
-  </si>
-  <si>
-    <t>Día 1</t>
-  </si>
-  <si>
-    <t>1日目</t>
-  </si>
-  <si>
-    <t>1일차</t>
-  </si>
-  <si>
-    <t>วันที่ 1</t>
-  </si>
-  <si>
-    <t>UI_DAY_2</t>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Dia 2</t>
-  </si>
-  <si>
-    <t>2日目</t>
-  </si>
-  <si>
-    <t>2일차</t>
-  </si>
-  <si>
-    <t>วันที่ 2</t>
-  </si>
-  <si>
-    <t>UI_DAY_3</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Día 3</t>
-  </si>
-  <si>
-    <t>3日目</t>
-  </si>
-  <si>
-    <t>3일차</t>
-  </si>
-  <si>
-    <t>วันที่ 3</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>UI_DAY_4</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Día 4</t>
-  </si>
-  <si>
-    <t>4日目</t>
-  </si>
-  <si>
-    <t>4일차</t>
-  </si>
-  <si>
-    <t>วันที่ 4</t>
-  </si>
-  <si>
-    <t>UI_DAY_5</t>
-  </si>
-  <si>
-    <t>Day 5+</t>
-  </si>
-  <si>
-    <t>Día 5+</t>
-  </si>
-  <si>
-    <t>5日目以降</t>
-  </si>
-  <si>
-    <t>5일 이상</t>
-  </si>
-  <si>
-    <t>วันที่ 5+</t>
-  </si>
-  <si>
-    <t>UI_TODAY</t>
-  </si>
-  <si>
     <t>Today</t>
   </si>
   <si>
@@ -933,9 +846,6 @@
     <t>วันนี้</t>
   </si>
   <si>
-    <t>UI_TAP_TO_COLLECT</t>
-  </si>
-  <si>
     <t>Tap to collect!</t>
   </si>
   <si>
@@ -951,9 +861,6 @@
     <t>แตะเพื่อสะสม!</t>
   </si>
   <si>
-    <t>UI_FREE_GIFT</t>
-  </si>
-  <si>
     <t>Free Gift</t>
   </si>
   <si>
@@ -969,9 +876,6 @@
     <t>ของขวัญฟรี</t>
   </si>
   <si>
-    <t>UI_REFRESH_IN</t>
-  </si>
-  <si>
     <t>Refresh In:</t>
   </si>
   <si>
@@ -987,9 +891,6 @@
     <t>รีเฟรชใน:</t>
   </si>
   <si>
-    <t>UI_FREE_GIFT_EVERYDAY</t>
-  </si>
-  <si>
     <t>Free Lucky Chest</t>
   </si>
   <si>
@@ -1005,9 +906,6 @@
     <t>ฟรี Lucky Chest</t>
   </si>
   <si>
-    <t>UI_WAIT_TIME_MINUS_30M</t>
-  </si>
-  <si>
     <t>Refresh -30M</t>
   </si>
   <si>
@@ -1023,9 +921,6 @@
     <t>รีเฟรช -30M</t>
   </si>
   <si>
-    <t>UI_UPGRADE_BARN</t>
-  </si>
-  <si>
     <t>Upgrade Barn</t>
   </si>
   <si>
@@ -1041,9 +936,6 @@
     <t>อัพเกรด Barn</t>
   </si>
   <si>
-    <t>UI_UPGRADE</t>
-  </si>
-  <si>
     <t>Upgrade</t>
   </si>
   <si>
@@ -1059,9 +951,6 @@
     <t>อัพเกรด</t>
   </si>
   <si>
-    <t>UI_BUY</t>
-  </si>
-  <si>
     <t>Buy</t>
   </si>
   <si>
@@ -1077,9 +966,6 @@
     <t>ซื้อ</t>
   </si>
   <si>
-    <t>UI_GO_TO_SHOP</t>
-  </si>
-  <si>
     <t>Go To Shop</t>
   </si>
   <si>
@@ -1095,9 +981,6 @@
     <t>ไปที่ร้านค้า</t>
   </si>
   <si>
-    <t>UI_CONFIRM</t>
-  </si>
-  <si>
     <t>Confirm</t>
   </si>
   <si>
@@ -1113,9 +996,6 @@
     <t>ยืนยัน</t>
   </si>
   <si>
-    <t>UI_CANCEL</t>
-  </si>
-  <si>
     <t>Cancel</t>
   </si>
   <si>
@@ -1131,9 +1011,6 @@
     <t>ยกเลิก</t>
   </si>
   <si>
-    <t>UI_WARNING</t>
-  </si>
-  <si>
     <t>Warning!</t>
   </si>
   <si>
@@ -1149,9 +1026,6 @@
     <t>คำเตือน!</t>
   </si>
   <si>
-    <t>UI_BARN_UPGRADE</t>
-  </si>
-  <si>
     <t>Barn Upgrade</t>
   </si>
   <si>
@@ -1164,9 +1038,6 @@
     <t>อัพเกรดโรงนา</t>
   </si>
   <si>
-    <t>UI_FINISH_BUILDING</t>
-  </si>
-  <si>
     <t>Building Finish</t>
   </si>
   <si>
@@ -1182,9 +1053,6 @@
     <t>สร้างเสร็จ</t>
   </si>
   <si>
-    <t>UI_FINISH</t>
-  </si>
-  <si>
     <t>Finish</t>
   </si>
   <si>
@@ -1200,9 +1068,6 @@
     <t>เสร็จ</t>
   </si>
   <si>
-    <t>UI_COMPLETE</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
@@ -1218,9 +1083,6 @@
     <t>สมบูรณ์</t>
   </si>
   <si>
-    <t>UI_NOT_ENOUGH_COIN</t>
-  </si>
-  <si>
     <t>Not enough Coin</t>
   </si>
   <si>
@@ -1236,9 +1098,6 @@
     <t>เหรียญไม่พอ</t>
   </si>
   <si>
-    <t>UI_NOT_ENOUGH_CASH</t>
-  </si>
-  <si>
     <t>Not Enough Cash</t>
   </si>
   <si>
@@ -1254,9 +1113,6 @@
     <t>เงินสดไม่พอ</t>
   </si>
   <si>
-    <t>UI_TAP_TO_CLOSE</t>
-  </si>
-  <si>
     <t>Tap to close!</t>
   </si>
   <si>
@@ -1272,9 +1128,6 @@
     <t>แตะเพื่อปิด!</t>
   </si>
   <si>
-    <t>UI_SEND</t>
-  </si>
-  <si>
     <t>Send</t>
   </si>
   <si>
@@ -1290,9 +1143,6 @@
     <t>ส่ง</t>
   </si>
   <si>
-    <t>UI_UNLOCK_AT_LEVEL_X</t>
-  </si>
-  <si>
     <t>Unlock at level {0}</t>
   </si>
   <si>
@@ -1308,9 +1158,6 @@
     <t>ปลดล็อกที่ระดับ {0}</t>
   </si>
   <si>
-    <t>UI_REQUIRED_LEVEL_X</t>
-  </si>
-  <si>
     <t>Require level {0}</t>
   </si>
   <si>
@@ -1326,9 +1173,6 @@
     <t>ระดับที่ต้องการ {0}</t>
   </si>
   <si>
-    <t>UI_REQUIRED_CITY_LEVEL_X</t>
-  </si>
-  <si>
     <t>Require city level {0}</t>
   </si>
   <si>
@@ -1342,9 +1186,6 @@
   </si>
   <si>
     <t>ระดับเมืองที่ต้องการ {0}</t>
-  </si>
-  <si>
-    <t>UI_MISSION_COMPLETED</t>
   </si>
   <si>
     <t>Mission completed</t>
@@ -1674,19 +1515,205 @@
   </si>
   <si>
     <t>sdd</t>
+  </si>
+  <si>
+    <t>DAY_X</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>TAP_TO_COLLECT</t>
+  </si>
+  <si>
+    <t>FREE_GIFT</t>
+  </si>
+  <si>
+    <t>REFRESH_IN</t>
+  </si>
+  <si>
+    <t>FREE_GIFT_EVERYDAY</t>
+  </si>
+  <si>
+    <t>WAIT_TIME_MINUS_30M</t>
+  </si>
+  <si>
+    <t>UPGRADE_BARN</t>
+  </si>
+  <si>
+    <t>UPGRADE</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>GO_TO_SHOP</t>
+  </si>
+  <si>
+    <t>CONFIRM</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>BARN_UPGRADE</t>
+  </si>
+  <si>
+    <t>FINISH_BUILDING</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_COIN</t>
+  </si>
+  <si>
+    <t>NOT_ENOUGH_CASH</t>
+  </si>
+  <si>
+    <t>TAP_TO_CLOSE</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>UNLOCK_AT_LEVEL_X</t>
+  </si>
+  <si>
+    <t>REQUIRED_LEVEL_X</t>
+  </si>
+  <si>
+    <t>REQUIRED_CITY_LEVEL_X</t>
+  </si>
+  <si>
+    <t>MISSION_COMPLETED</t>
+  </si>
+  <si>
+    <t>Day {0}</t>
+  </si>
+  <si>
+    <t>Día {0}</t>
+  </si>
+  <si>
+    <t>{0}日目</t>
+  </si>
+  <si>
+    <t>{0}일차</t>
+  </si>
+  <si>
+    <t>วันที่ {0}</t>
+  </si>
+  <si>
+    <t>第 {0} 天</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>点击即可收集！</t>
+  </si>
+  <si>
+    <t>赠品</t>
+  </si>
+  <si>
+    <t>刷新于：</t>
+  </si>
+  <si>
+    <t>免费幸运宝箱</t>
+  </si>
+  <si>
+    <t>刷新-30M</t>
+  </si>
+  <si>
+    <t>升级谷仓</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
+    <t>去商店</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>谷仓升级</t>
+  </si>
+  <si>
+    <t>建筑装修</t>
+  </si>
+  <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>完全的</t>
+  </si>
+  <si>
+    <t>金币不够</t>
+  </si>
+  <si>
+    <t>没有足够的现金</t>
+  </si>
+  <si>
+    <t>点击即可关闭！</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>在级别 {0} 解锁</t>
+  </si>
+  <si>
+    <t>需要级别 {0}</t>
+  </si>
+  <si>
+    <t>需要城市级别 {0}</t>
+  </si>
+  <si>
+    <t>任务完成</t>
+  </si>
+  <si>
+    <t>Excel formula example</t>
+  </si>
+  <si>
+    <t>Integer array example</t>
+  </si>
+  <si>
+    <t>FLoat array example</t>
+  </si>
+  <si>
+    <t>Integer Example</t>
+  </si>
+  <si>
+    <t>String example</t>
+  </si>
+  <si>
+    <t>Float example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector2 example </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector3 example </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,136 +1749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -1862,8 +1759,14 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,174 +1793,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2106,254 +1859,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2374,24 +1891,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2444,10 +1952,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,72 +1970,43 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2541,9 +2020,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangular Callout 1"/>
+        <xdr:cNvPr id="2" name="Rectangular Callout 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2602,9 +2087,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2675,9 +2166,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2764,9 +2261,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangular Callout 1"/>
+        <xdr:cNvPr id="4" name="Rectangular Callout 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3079,289 +2582,287 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="29" customWidth="1"/>
-    <col min="3" max="3" width="22.2857142857143" style="29" customWidth="1"/>
-    <col min="4" max="4" width="36.4285714285714" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="25" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="35">
         <v>83</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="35">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="38">
+        <v>4</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="41">
-        <v>1.021</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4">
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="44">
-        <v>4</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" ht="30" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <f>1*10*36</f>
         <v>360</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>6</v>
+      <c r="D20" s="36" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <f>1+2+3+4+5+6+7+8+9</f>
         <v>45</v>
       </c>
-      <c r="D21" s="42" t="s">
-        <v>6</v>
+      <c r="D21" s="36" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,519 +2871,517 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8571428571429" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="17" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="11.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="2.71428571428571" customWidth="1"/>
-    <col min="9" max="9" width="12" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" style="17" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="23"/>
-    <col min="13" max="13" width="20.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="21" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="30" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="38"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="19">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="21">
         <v>0</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="28">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="21">
         <v>1</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="30" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="28">
         <v>1</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="19">
         <v>1</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="21">
         <v>2</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="28">
         <v>2</v>
       </c>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="22">
         <v>2</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="19">
         <v>2</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="29"/>
+      <c r="M4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="21">
         <v>3</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="30" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="28">
         <v>3</v>
       </c>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="19">
         <v>3</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="22">
         <v>3</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="30" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="19">
         <v>3</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="21" t="s">
+      <c r="L5" s="25"/>
+      <c r="M5" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="21">
         <v>4</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="30" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="28">
         <v>4</v>
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:18">
+      <c r="A6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="19">
         <v>4</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <v>4</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="21" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="21">
         <v>5</v>
       </c>
-      <c r="O6" s="24"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="26" t="s">
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <v>5</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="21" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>5</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="21" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="21">
         <v>6</v>
       </c>
-      <c r="O7" s="24"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="26" t="s">
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="19">
         <v>6</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="21" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="22">
         <v>6</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="21" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="21">
         <v>7</v>
       </c>
-      <c r="O8" s="24"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="26" t="s">
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="19">
         <v>7</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="22">
         <v>7</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="21" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="21">
         <v>8</v>
       </c>
-      <c r="O9" s="24"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="26" t="s">
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="19">
         <v>8</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="21" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>8</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="21" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <v>9</v>
       </c>
-      <c r="O10" s="24"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="26" t="s">
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="19">
         <v>9</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>9</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="21" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="21">
         <v>10</v>
       </c>
-      <c r="O11" s="24"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="26" t="s">
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="21" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="21">
         <v>11</v>
       </c>
-      <c r="O12" s="24"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="26" t="s">
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="19">
         <v>11</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="21" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="21">
         <v>12</v>
       </c>
-      <c r="O13" s="24"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="26" t="s">
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <v>12</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="3:14">
+      <c r="F14" s="20"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="C15"/>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="19">
         <v>13</v>
       </c>
       <c r="F15" s="1"/>
       <c r="I15"/>
       <c r="L15"/>
-      <c r="N15" s="37"/>
+      <c r="N15" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="25.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="27.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="33.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="20.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="25.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3898,1423 +3397,1414 @@
       <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="11" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="22"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="22"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="22"/>
+    <row r="25" spans="1:8">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A20:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1428571428571" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="27.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="20.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="H1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G3" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="H3" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H4" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G5" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H5" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E6" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="H6" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="H7" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
+      <c r="H8" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H9" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="H10" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="H11" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="H12" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12" t="s">
+      <c r="H14" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G15" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H15" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="F16" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="H16" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="H17" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="H18" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D19" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="12" t="s">
+      <c r="H19" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="D20" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G20" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H20" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="E21" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="H21" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="F22" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="G22" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="H22" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="E23" s="10" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="H23" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="D24" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="E24" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="F24" s="10" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="H24" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E25" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F25" s="10" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="H25" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E26" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F26" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G26" s="10" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="12" t="s">
+      <c r="H26" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
+      <c r="D27" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E27" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F27" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="G27" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>397</v>
+      <c r="H27" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="16.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="1" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>402</v>
+      <c r="A1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1.2</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>403</v>
+      <c r="E2" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3.1</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>403</v>
+      <c r="E3" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>403</v>
+      <c r="E4" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>10.7</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>403</v>
+      <c r="E5" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="5">
-        <v>16.4</v>
-      </c>
-      <c r="D6" s="5" t="b">
+      <c r="C6" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>403</v>
+      <c r="E6" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="40">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="b">
+      <c r="D7" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>403</v>
+      <c r="E7" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="b">
+      <c r="D8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>403</v>
+      <c r="E8" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5322,675 +4812,669 @@
     <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="29.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="7.85714285714286" customWidth="1"/>
-    <col min="7" max="7" width="68.7142857142857" customWidth="1"/>
+    <col min="5" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A1" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:7">
-      <c r="A4" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="E2" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" s="5" t="b">
+      <c r="C8" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>435</v>
+      <c r="E8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="18.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="21.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="6.85714285714286" customWidth="1"/>
-    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
-    <col min="6" max="6" width="9.42857142857143" customWidth="1"/>
-    <col min="7" max="7" width="5.71428571428571" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="8.28571428571429" customWidth="1"/>
-    <col min="10" max="10" width="9.28571428571429" customWidth="1"/>
-    <col min="11" max="11" width="10.8571428571429" customWidth="1"/>
-    <col min="12" max="12" width="7.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="20.7142857142857" customWidth="1"/>
-    <col min="14" max="14" width="6.85714285714286" customWidth="1"/>
-    <col min="15" max="15" width="7.85714285714286" customWidth="1"/>
-    <col min="16" max="16" width="9.42857142857143" customWidth="1"/>
-    <col min="17" max="17" width="21.8571428571429" customWidth="1"/>
-    <col min="18" max="18" width="6.85714285714286" customWidth="1"/>
-    <col min="19" max="19" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>460</v>
+      <c r="A1" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>30</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>8</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <v>3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>10</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>1</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>1.5</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>10</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>15</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>20</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>10</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="8" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>21</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="7"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <v>23</v>
       </c>
-      <c r="S7" s="8">
-        <v>0.015</v>
+      <c r="S7" s="7">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <v>11</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="4.57142857142857" customWidth="1"/>
-    <col min="7" max="7" width="10.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="4.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="4.57142857142857" customWidth="1"/>
-    <col min="11" max="11" width="4.57142857142857" customWidth="1"/>
+    <col min="1" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="5.57142857142857" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>480</v>
+        <v>425</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>482</v>
+        <v>427</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="41">
         <v>100</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="41">
         <v>200</v>
       </c>
       <c r="C2" s="1">
@@ -6010,25 +5494,25 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
       <c r="I2" s="1">
         <v>12</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="1">
         <v>4</v>
       </c>
@@ -6038,36 +5522,36 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>489</v>
+      <c r="F3" s="41" t="s">
+        <v>434</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(C3:E3)</f>
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="41">
         <v>500</v>
       </c>
       <c r="D4" s="1">
@@ -6076,60 +5560,60 @@
       <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>492</v>
+        <v>437</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>493</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="1">
         <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1">
         <v>6</v>
       </c>
@@ -6142,23 +5626,23 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>495</v>
+        <v>440</v>
       </c>
       <c r="I6" s="1">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>496</v>
+        <v>441</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>497</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6182,20 +5666,20 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>498</v>
+        <v>443</v>
       </c>
       <c r="L7" s="2">
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6206,7 +5690,6 @@
     <mergeCell ref="F3:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Basic/Data/Example.xlsx
+++ b/Assets/Basic/Data/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\excel-2-unity-example\Assets\Basic\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F594A0-20A9-4F39-BD1F-4DDFAF05CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64E3987-1DD0-419A-BC17-23A05C6D4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25110" yWindow="3675" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleConstants" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="531">
   <si>
     <t>Name</t>
   </si>
@@ -1320,9 +1320,6 @@
 676</t>
   </si>
   <si>
-    <t>[{"id":HERO_1, "name":"John Doe 1"},{"id":HERO_2, "name":"Mary Sue 2"}]</t>
-  </si>
-  <si>
     <t>text1 | text4</t>
   </si>
   <si>
@@ -1707,13 +1704,82 @@
   </si>
   <si>
     <t xml:space="preserve">Vector3 example </t>
+  </si>
+  <si>
+    <t>currency.coin.min</t>
+  </si>
+  <si>
+    <t>currency.coin.max</t>
+  </si>
+  <si>
+    <t>character.name</t>
+  </si>
+  <si>
+    <t>character.sex</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>currency.gemMin</t>
+  </si>
+  <si>
+    <t>currency.gemMax</t>
+  </si>
+  <si>
+    <t>10 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>11 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>12 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>13 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>14 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>15 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>16 | 20 | 30 | 50</t>
+  </si>
+  <si>
+    <t>{"name": [ "english", "spansih", "japanese"]}</t>
+  </si>
+  <si>
+    <t>nestedArray.examples[]</t>
+  </si>
+  <si>
+    <t>nestedJson.examples{}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1763,6 +1829,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1970,6 +2042,12 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1978,12 +2056,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2590,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2627,8 +2699,8 @@
       <c r="C2" s="35">
         <v>83</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>504</v>
+      <c r="D2" s="39" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2641,8 +2713,8 @@
       <c r="C3" s="35">
         <v>1.0209999999999999</v>
       </c>
-      <c r="D3" s="42" t="s">
-        <v>506</v>
+      <c r="D3" s="39" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2655,8 +2727,8 @@
       <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="42" t="s">
-        <v>505</v>
+      <c r="D4" s="39" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2672,8 +2744,8 @@
       <c r="C6" s="38">
         <v>4</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>502</v>
+      <c r="D6" s="40" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2686,8 +2758,8 @@
       <c r="C7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>502</v>
+      <c r="D7" s="40" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2703,8 +2775,8 @@
       <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>503</v>
+      <c r="D9" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2717,8 +2789,8 @@
       <c r="C10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>503</v>
+      <c r="D10" s="39" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2734,8 +2806,8 @@
       <c r="C12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>507</v>
+      <c r="D12" s="40" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2748,8 +2820,8 @@
       <c r="C13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>507</v>
+      <c r="D13" s="40" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2762,8 +2834,8 @@
       <c r="C14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>508</v>
+      <c r="D14" s="40" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2779,8 +2851,8 @@
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>502</v>
+      <c r="D16" s="39" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2793,8 +2865,8 @@
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>502</v>
+      <c r="D17" s="39" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2808,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -2837,7 +2909,7 @@
         <v>360</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2852,7 +2924,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2938,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3838,7 +3910,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="41" t="s">
         <v>187</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -3864,7 +3936,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="15" t="s">
         <v>51</v>
       </c>
@@ -3888,7 +3960,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="15" t="s">
         <v>57</v>
       </c>
@@ -3912,7 +3984,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="15" t="s">
         <v>63</v>
       </c>
@@ -3936,7 +4008,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="15" t="s">
         <v>69</v>
       </c>
@@ -4030,31 +4102,31 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -4073,12 +4145,12 @@
         <v>223</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -4097,12 +4169,12 @@
         <v>228</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -4121,12 +4193,12 @@
         <v>233</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -4145,12 +4217,12 @@
         <v>238</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
@@ -4169,12 +4241,12 @@
         <v>243</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -4193,12 +4265,12 @@
         <v>248</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -4217,12 +4289,12 @@
         <v>253</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
@@ -4241,12 +4313,12 @@
         <v>258</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
@@ -4265,12 +4337,12 @@
         <v>263</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
@@ -4289,12 +4361,12 @@
         <v>268</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
@@ -4313,12 +4385,12 @@
         <v>273</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
@@ -4337,12 +4409,12 @@
         <v>278</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
@@ -4366,7 +4438,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
@@ -4385,12 +4457,12 @@
         <v>287</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
@@ -4409,12 +4481,12 @@
         <v>292</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
@@ -4433,12 +4505,12 @@
         <v>297</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
@@ -4457,12 +4529,12 @@
         <v>302</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
@@ -4481,12 +4553,12 @@
         <v>307</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
@@ -4505,12 +4577,12 @@
         <v>312</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
@@ -4529,12 +4601,12 @@
         <v>317</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
@@ -4553,12 +4625,12 @@
         <v>322</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
@@ -4577,12 +4649,12 @@
         <v>327</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
@@ -4601,12 +4673,12 @@
         <v>332</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
@@ -4625,12 +4697,12 @@
         <v>337</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
@@ -4649,7 +4721,7 @@
         <v>342</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4660,10 +4732,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4671,9 +4743,17 @@
     <col min="1" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>343</v>
       </c>
@@ -4689,8 +4769,26 @@
       <c r="E1" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4706,8 +4804,28 @@
       <c r="E2" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="20">
+        <v>10</v>
+      </c>
+      <c r="G2" s="20">
+        <f>F2*2</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <f>H2*2</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4723,8 +4841,28 @@
       <c r="E3" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="20">
+        <v>20</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:I8" si="0">F3*2</f>
+        <v>40</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4740,8 +4878,28 @@
       <c r="E4" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="20">
+        <v>30</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H4" s="20">
+        <v>3</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -4757,8 +4915,28 @@
       <c r="E5" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="20">
+        <v>40</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -4774,9 +4952,29 @@
       <c r="E6" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="40">
+      <c r="F6" s="20">
+        <v>50</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H6" s="20">
+        <v>5</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="42">
         <v>14</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -4791,9 +4989,29 @@
       <c r="E7" s="9" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="40"/>
+      <c r="F7" s="20">
+        <v>60</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H7" s="20">
+        <v>6</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="42"/>
       <c r="B8" s="9" t="s">
         <v>83</v>
       </c>
@@ -4805,22 +5023,43 @@
       </c>
       <c r="E8" s="9" t="s">
         <v>348</v>
+      </c>
+      <c r="F8" s="20">
+        <v>70</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="H8" s="20">
+        <v>7</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:A8"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15"/>
@@ -4831,9 +5070,10 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="68.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>349</v>
       </c>
@@ -4855,8 +5095,14 @@
       <c r="G1" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
+      <c r="H1" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="8" t="s">
         <v>356</v>
       </c>
@@ -4878,8 +5124,14 @@
       <c r="G2" s="9" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+      <c r="H2" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="4" t="s">
         <v>360</v>
       </c>
@@ -4901,8 +5153,14 @@
       <c r="G3" s="9" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
+      <c r="H3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="8" t="s">
         <v>366</v>
       </c>
@@ -4924,8 +5182,14 @@
       <c r="G4" s="9" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+      <c r="H4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="8" t="s">
         <v>372</v>
       </c>
@@ -4947,8 +5211,14 @@
       <c r="G5" s="9" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+      <c r="H5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="4" t="s">
         <v>376</v>
       </c>
@@ -4968,15 +5238,21 @@
         <v>358</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>362</v>
@@ -4985,36 +5261,48 @@
         <v>363</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>358</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
+        <v>359</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>358</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>380</v>
+        <v>359</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -5055,61 +5343,61 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -5117,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>49</v>
@@ -5152,7 +5440,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>84</v>
@@ -5195,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>72</v>
@@ -5216,16 +5504,16 @@
         <v>91</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>55</v>
@@ -5248,7 +5536,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>55</v>
@@ -5269,16 +5557,16 @@
         <v>91</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>55</v>
@@ -5305,7 +5593,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>84</v>
@@ -5344,7 +5632,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -5385,7 +5673,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5435,46 +5723,46 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="41">
+      <c r="A2" s="43">
         <v>100</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="43">
         <v>200</v>
       </c>
       <c r="C2" s="1">
@@ -5494,25 +5782,25 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I2" s="1">
         <v>12</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="1">
         <v>4</v>
       </c>
@@ -5522,8 +5810,8 @@
       <c r="E3" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>434</v>
+      <c r="F3" s="43" t="s">
+        <v>433</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(C3:E3)</f>
@@ -5537,21 +5825,21 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="41"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>500</v>
       </c>
       <c r="D4" s="1">
@@ -5560,40 +5848,40 @@
       <c r="E4" s="1">
         <v>7</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="1">
         <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
         <v>218</v>
@@ -5603,17 +5891,17 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="1">
         <v>6</v>
       </c>
@@ -5626,23 +5914,23 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I6" s="1">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5673,13 +5961,13 @@
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L7" s="2">
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
